--- a/src/OCRProject/Output/Comparision/ProcessingResults.xlsx
+++ b/src/OCRProject/Output/Comparision/ProcessingResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
   <si>
     <t xml:space="preserve">Image Name</t>
   </si>
@@ -23,25 +23,28 @@
     <t xml:space="preserve">Time Taken (s)</t>
   </si>
   <si>
+    <t xml:space="preserve">ocr_preprocessing_input</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_grayscale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_AdaptiveThreshold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_GlobalThreshold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_Shifted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_SaturationAdjusted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_Deskewed</t>
+  </si>
+  <si>
     <t xml:space="preserve">opencv_adaptive_thresholding_input</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grayscale Conversion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AdaptiveThreshold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">globalThreshold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ShiftImage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SaturationAdjustment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deskew</t>
   </si>
 </sst>
 </file>
@@ -86,7 +89,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="1" showOutlineSymbols="1" defaultGridColor="1" colorId="64" zoomScale="100" workbookViewId="0"/>
   </sheetViews>
@@ -111,7 +114,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="0">
-        <v>0.5017257</v>
+        <v>1.0774115</v>
       </c>
     </row>
     <row r="3">
@@ -122,7 +125,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="0">
-        <v>0.3742016</v>
+        <v>0.2329679</v>
       </c>
     </row>
     <row r="4">
@@ -133,7 +136,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="0">
-        <v>0.4009784</v>
+        <v>0.4048086</v>
       </c>
     </row>
     <row r="5">
@@ -144,7 +147,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="0">
-        <v>0.3131678</v>
+        <v>0.1825943</v>
       </c>
     </row>
     <row r="6">
@@ -155,7 +158,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="0">
-        <v>0.1600028</v>
+        <v>0.2035295</v>
       </c>
     </row>
     <row r="7">
@@ -166,7 +169,73 @@
         <v>9</v>
       </c>
       <c r="C7" s="0">
-        <v>2.47522</v>
+        <v>0.699715</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="0">
+        <v>0.3098973</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="0">
+        <v>0.2088095</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="0">
+        <v>0.2274554</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="0">
+        <v>0.1959603</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="0">
+        <v>0.198854</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="0">
+        <v>0.7325159</v>
       </c>
     </row>
   </sheetData>

--- a/src/OCRProject/Output/Comparision/ProcessingResults.xlsx
+++ b/src/OCRProject/Output/Comparision/ProcessingResults.xlsx
@@ -23,12 +23,15 @@
     <t xml:space="preserve">Time Taken (s)</t>
   </si>
   <si>
+    <t xml:space="preserve">opencv_adaptive_thresholding_input</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_grayscale</t>
+  </si>
+  <si>
     <t xml:space="preserve">ocr_preprocessing_input</t>
   </si>
   <si>
-    <t xml:space="preserve">_grayscale</t>
-  </si>
-  <si>
     <t xml:space="preserve">_AdaptiveThreshold</t>
   </si>
   <si>
@@ -42,9 +45,6 @@
   </si>
   <si>
     <t xml:space="preserve">_Deskewed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">opencv_adaptive_thresholding_input</t>
   </si>
 </sst>
 </file>
@@ -114,18 +114,18 @@
         <v>4</v>
       </c>
       <c r="C2" s="0">
-        <v>1.0774115</v>
+        <v>0.2912914</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="0">
-        <v>0.2329679</v>
+        <v>0.1994955</v>
       </c>
     </row>
     <row r="4">
@@ -136,18 +136,18 @@
         <v>6</v>
       </c>
       <c r="C4" s="0">
-        <v>0.4048086</v>
+        <v>0.0562929</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="0">
-        <v>0.1825943</v>
+        <v>0.1863435</v>
       </c>
     </row>
     <row r="6">
@@ -155,10 +155,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="0">
-        <v>0.2035295</v>
+        <v>0.0540442</v>
       </c>
     </row>
     <row r="7">
@@ -166,76 +166,76 @@
         <v>3</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="0">
-        <v>0.699715</v>
+        <v>0.1880385</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C8" s="0">
-        <v>0.3098973</v>
+        <v>0.1476496</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C9" s="0">
-        <v>0.2088095</v>
+        <v>0.080202</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C10" s="0">
-        <v>0.2274554</v>
+        <v>0.1254146</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C11" s="0">
-        <v>0.1959603</v>
+        <v>0.1996294</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>8</v>
-      </c>
       <c r="C12" s="0">
-        <v>0.198854</v>
+        <v>0.4952633</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>9</v>
-      </c>
       <c r="C13" s="0">
-        <v>0.7325159</v>
+        <v>0.4952633</v>
       </c>
     </row>
   </sheetData>

--- a/src/OCRProject/Output/Comparision/ProcessingResults.xlsx
+++ b/src/OCRProject/Output/Comparision/ProcessingResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t xml:space="preserve">Image Name</t>
   </si>
@@ -23,13 +23,10 @@
     <t xml:space="preserve">Time Taken (s)</t>
   </si>
   <si>
-    <t xml:space="preserve">opencv_adaptive_thresholding_input</t>
+    <t xml:space="preserve">ocr_preprocessing_input</t>
   </si>
   <si>
     <t xml:space="preserve">_grayscale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ocr_preprocessing_input</t>
   </si>
   <si>
     <t xml:space="preserve">_AdaptiveThreshold</t>
@@ -89,7 +86,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="1" showOutlineSymbols="1" defaultGridColor="1" colorId="64" zoomScale="100" workbookViewId="0"/>
   </sheetViews>
@@ -114,18 +111,18 @@
         <v>4</v>
       </c>
       <c r="C2" s="0">
-        <v>0.2912914</v>
+        <v>0.8883951</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>4</v>
-      </c>
       <c r="C3" s="0">
-        <v>0.1994955</v>
+        <v>0.2344292</v>
       </c>
     </row>
     <row r="4">
@@ -136,18 +133,18 @@
         <v>6</v>
       </c>
       <c r="C4" s="0">
-        <v>0.0562929</v>
+        <v>0.4084136</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" s="0">
-        <v>0.1863435</v>
+        <v>0.1816992</v>
       </c>
     </row>
     <row r="6">
@@ -155,10 +152,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" s="0">
-        <v>0.0540442</v>
+        <v>0.2135708</v>
       </c>
     </row>
     <row r="7">
@@ -166,76 +163,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" s="0">
-        <v>0.1880385</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="0">
-        <v>0.1476496</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="0">
-        <v>0.080202</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="0">
-        <v>0.1254146</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="0">
-        <v>0.1996294</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="0">
-        <v>0.4952633</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="0">
-        <v>0.4952633</v>
+        <v>0.7219733</v>
       </c>
     </row>
   </sheetData>

--- a/src/OCRProject/Output/Comparision/ProcessingResults.xlsx
+++ b/src/OCRProject/Output/Comparision/ProcessingResults.xlsx
@@ -23,7 +23,7 @@
     <t xml:space="preserve">Time Taken (s)</t>
   </si>
   <si>
-    <t xml:space="preserve">ocr_preprocessing_input</t>
+    <t xml:space="preserve">sample-image</t>
   </si>
   <si>
     <t xml:space="preserve">Grayscale</t>
@@ -108,7 +108,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="0">
-        <v>3.1009005</v>
+        <v>3.195232</v>
       </c>
     </row>
     <row r="3">
@@ -119,7 +119,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="0">
-        <v>1.8717209</v>
+        <v>2.8267854</v>
       </c>
     </row>
     <row r="4">
@@ -130,7 +130,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="0">
-        <v>0.6453794</v>
+        <v>0.5918736</v>
       </c>
     </row>
     <row r="5">
@@ -141,7 +141,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="0">
-        <v>0.6258208</v>
+        <v>0.7613232</v>
       </c>
     </row>
     <row r="6">
@@ -152,7 +152,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="0">
-        <v>4.5114031</v>
+        <v>10.0845998</v>
       </c>
     </row>
   </sheetData>

--- a/src/OCRProject/Output/Comparision/ProcessingResults.xlsx
+++ b/src/OCRProject/Output/Comparision/ProcessingResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t xml:space="preserve">Image Name</t>
   </si>
@@ -23,22 +23,10 @@
     <t xml:space="preserve">Time Taken (s)</t>
   </si>
   <si>
-    <t xml:space="preserve">sample-image</t>
+    <t xml:space="preserve">ocr_preprocessing_input</t>
   </si>
   <si>
     <t xml:space="preserve">Grayscale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GlobalThreshold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shifted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SaturationAdjusted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deskewed</t>
   </si>
 </sst>
 </file>
@@ -83,7 +71,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="1" showOutlineSymbols="1" defaultGridColor="1" colorId="64" zoomScale="100" workbookViewId="0"/>
   </sheetViews>
@@ -108,51 +96,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="0">
-        <v>1.2524604</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="0">
-        <v>1.0849144</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="0">
-        <v>0.097008</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="0">
-        <v>0.1318487</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="0">
-        <v>4.2191572</v>
+        <v>16.1419122</v>
       </c>
     </row>
   </sheetData>

--- a/src/OCRProject/Output/Comparision/ProcessingResults.xlsx
+++ b/src/OCRProject/Output/Comparision/ProcessingResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t xml:space="preserve">Image Name</t>
   </si>
@@ -23,10 +23,22 @@
     <t xml:space="preserve">Time Taken (s)</t>
   </si>
   <si>
-    <t xml:space="preserve">ocr_preprocessing_input</t>
+    <t xml:space="preserve">special-characters</t>
   </si>
   <si>
     <t xml:space="preserve">Grayscale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GlobalThreshold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shifted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SaturationAdjusted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deskewed</t>
   </si>
 </sst>
 </file>
@@ -71,7 +83,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="1" showOutlineSymbols="1" defaultGridColor="1" colorId="64" zoomScale="100" workbookViewId="0"/>
   </sheetViews>
@@ -96,7 +108,51 @@
         <v>4</v>
       </c>
       <c r="C2" s="0">
-        <v>16.1419122</v>
+        <v>1.8025497</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="0">
+        <v>0.4763003</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="0">
+        <v>0.6950983</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="0">
+        <v>0.3250349</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="0">
+        <v>0.56569</v>
       </c>
     </row>
   </sheetData>

--- a/src/OCRProject/Output/Comparision/ProcessingResults.xlsx
+++ b/src/OCRProject/Output/Comparision/ProcessingResults.xlsx
@@ -23,7 +23,7 @@
     <t xml:space="preserve">Time Taken (s)</t>
   </si>
   <si>
-    <t xml:space="preserve">special-characters</t>
+    <t xml:space="preserve">ocr_preprocessing_input</t>
   </si>
   <si>
     <t xml:space="preserve">Grayscale</t>
@@ -108,7 +108,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="0">
-        <v>1.8025497</v>
+        <v>3.5292712</v>
       </c>
     </row>
     <row r="3">
@@ -119,7 +119,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="0">
-        <v>0.4763003</v>
+        <v>1.2682953</v>
       </c>
     </row>
     <row r="4">
@@ -130,7 +130,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="0">
-        <v>0.6950983</v>
+        <v>1.6154462</v>
       </c>
     </row>
     <row r="5">
@@ -141,7 +141,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="0">
-        <v>0.3250349</v>
+        <v>1.5012657</v>
       </c>
     </row>
     <row r="6">
@@ -152,7 +152,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="0">
-        <v>0.56569</v>
+        <v>1.8521408</v>
       </c>
     </row>
   </sheetData>

--- a/src/OCRProject/Output/Comparision/ProcessingResults.xlsx
+++ b/src/OCRProject/Output/Comparision/ProcessingResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t xml:space="preserve">Image Name</t>
   </si>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t xml:space="preserve">Deskewed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memory Usage (MB)</t>
   </si>
 </sst>
 </file>
@@ -83,7 +86,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="1" showOutlineSymbols="1" defaultGridColor="1" colorId="64" zoomScale="100" workbookViewId="0"/>
   </sheetViews>
@@ -99,6 +102,9 @@
       <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="0" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
@@ -108,7 +114,10 @@
         <v>4</v>
       </c>
       <c r="C2" s="0">
-        <v>3.5292712</v>
+        <v>0.2244256</v>
+      </c>
+      <c r="D2" s="0">
+        <v>4.79</v>
       </c>
     </row>
     <row r="3">
@@ -119,7 +128,10 @@
         <v>5</v>
       </c>
       <c r="C3" s="0">
-        <v>1.2682953</v>
+        <v>0.0664771</v>
+      </c>
+      <c r="D3" s="0">
+        <v>4.54</v>
       </c>
     </row>
     <row r="4">
@@ -130,7 +142,10 @@
         <v>6</v>
       </c>
       <c r="C4" s="0">
-        <v>1.6154462</v>
+        <v>0.0836014</v>
+      </c>
+      <c r="D4" s="0">
+        <v>9.03</v>
       </c>
     </row>
     <row r="5">
@@ -141,7 +156,10 @@
         <v>7</v>
       </c>
       <c r="C5" s="0">
-        <v>1.5012657</v>
+        <v>0.0483999</v>
+      </c>
+      <c r="D5" s="0">
+        <v>0.02</v>
       </c>
     </row>
     <row r="6">
@@ -152,7 +170,10 @@
         <v>8</v>
       </c>
       <c r="C6" s="0">
-        <v>1.8521408</v>
+        <v>0.0106524</v>
+      </c>
+      <c r="D6" s="0">
+        <v>4.02</v>
       </c>
     </row>
   </sheetData>

--- a/src/OCRProject/Output/Comparision/ProcessingResults.xlsx
+++ b/src/OCRProject/Output/Comparision/ProcessingResults.xlsx
@@ -114,10 +114,10 @@
         <v>4</v>
       </c>
       <c r="C2" s="0">
-        <v>0.2244256</v>
+        <v>0.2609067</v>
       </c>
       <c r="D2" s="0">
-        <v>4.79</v>
+        <v>4.67</v>
       </c>
     </row>
     <row r="3">
@@ -128,10 +128,10 @@
         <v>5</v>
       </c>
       <c r="C3" s="0">
-        <v>0.0664771</v>
+        <v>0.0609402</v>
       </c>
       <c r="D3" s="0">
-        <v>4.54</v>
+        <v>5.39</v>
       </c>
     </row>
     <row r="4">
@@ -142,10 +142,10 @@
         <v>6</v>
       </c>
       <c r="C4" s="0">
-        <v>0.0836014</v>
+        <v>0.0726446</v>
       </c>
       <c r="D4" s="0">
-        <v>9.03</v>
+        <v>13.53</v>
       </c>
     </row>
     <row r="5">
@@ -156,10 +156,10 @@
         <v>7</v>
       </c>
       <c r="C5" s="0">
-        <v>0.0483999</v>
+        <v>0.0518053</v>
       </c>
       <c r="D5" s="0">
-        <v>0.02</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="6">
@@ -170,10 +170,10 @@
         <v>8</v>
       </c>
       <c r="C6" s="0">
-        <v>0.0106524</v>
+        <v>0.0128961</v>
       </c>
       <c r="D6" s="0">
-        <v>4.02</v>
+        <v>4.01</v>
       </c>
     </row>
   </sheetData>

--- a/src/OCRProject/Output/Comparision/ProcessingResults.xlsx
+++ b/src/OCRProject/Output/Comparision/ProcessingResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t xml:space="preserve">Image Name</t>
   </si>
@@ -23,16 +23,13 @@
     <t xml:space="preserve">Time Taken (s)</t>
   </si>
   <si>
-    <t xml:space="preserve">ocr_preprocessing_input</t>
+    <t xml:space="preserve">Test_OCR_document</t>
   </si>
   <si>
     <t xml:space="preserve">Grayscale</t>
   </si>
   <si>
     <t xml:space="preserve">GlobalThreshold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shifted</t>
   </si>
   <si>
     <t xml:space="preserve">SaturationAdjusted</t>
@@ -86,7 +83,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="1" showOutlineSymbols="1" defaultGridColor="1" colorId="64" zoomScale="100" workbookViewId="0"/>
   </sheetViews>
@@ -103,7 +100,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2">
@@ -114,10 +111,10 @@
         <v>4</v>
       </c>
       <c r="C2" s="0">
-        <v>0.2609067</v>
+        <v>0.3029875</v>
       </c>
       <c r="D2" s="0">
-        <v>4.67</v>
+        <v>5.34</v>
       </c>
     </row>
     <row r="3">
@@ -128,10 +125,10 @@
         <v>5</v>
       </c>
       <c r="C3" s="0">
-        <v>0.0609402</v>
+        <v>0.121577</v>
       </c>
       <c r="D3" s="0">
-        <v>5.39</v>
+        <v>5.59</v>
       </c>
     </row>
     <row r="4">
@@ -142,10 +139,10 @@
         <v>6</v>
       </c>
       <c r="C4" s="0">
-        <v>0.0726446</v>
+        <v>0.0464354</v>
       </c>
       <c r="D4" s="0">
-        <v>13.53</v>
+        <v>14.31</v>
       </c>
     </row>
     <row r="5">
@@ -156,24 +153,10 @@
         <v>7</v>
       </c>
       <c r="C5" s="0">
-        <v>0.0518053</v>
+        <v>0.0675742</v>
       </c>
       <c r="D5" s="0">
-        <v>1.93</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="0">
-        <v>0.0128961</v>
-      </c>
-      <c r="D6" s="0">
-        <v>4.01</v>
+        <v>-7.94</v>
       </c>
     </row>
   </sheetData>

--- a/src/OCRProject/Output/Comparision/ProcessingResults.xlsx
+++ b/src/OCRProject/Output/Comparision/ProcessingResults.xlsx
@@ -23,7 +23,7 @@
     <t xml:space="preserve">Time Taken (s)</t>
   </si>
   <si>
-    <t xml:space="preserve">Test_OCR_document</t>
+    <t xml:space="preserve">special-characters</t>
   </si>
   <si>
     <t xml:space="preserve">Grayscale</t>
@@ -111,10 +111,10 @@
         <v>4</v>
       </c>
       <c r="C2" s="0">
-        <v>0.3029875</v>
+        <v>0.0330983</v>
       </c>
       <c r="D2" s="0">
-        <v>5.34</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="3">
@@ -125,10 +125,10 @@
         <v>5</v>
       </c>
       <c r="C3" s="0">
-        <v>0.121577</v>
+        <v>0.013891</v>
       </c>
       <c r="D3" s="0">
-        <v>5.59</v>
+        <v>-0.09</v>
       </c>
     </row>
     <row r="4">
@@ -139,10 +139,10 @@
         <v>6</v>
       </c>
       <c r="C4" s="0">
-        <v>0.0464354</v>
+        <v>0.0136268</v>
       </c>
       <c r="D4" s="0">
-        <v>14.31</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="5">
@@ -153,10 +153,10 @@
         <v>7</v>
       </c>
       <c r="C5" s="0">
-        <v>0.0675742</v>
+        <v>0.0387508</v>
       </c>
       <c r="D5" s="0">
-        <v>-7.94</v>
+        <v>0.46</v>
       </c>
     </row>
   </sheetData>

--- a/src/OCRProject/Output/Comparision/ProcessingResults.xlsx
+++ b/src/OCRProject/Output/Comparision/ProcessingResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t xml:space="preserve">Image Name</t>
   </si>
@@ -27,6 +27,18 @@
   </si>
   <si>
     <t xml:space="preserve">Grayscale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GlobalThreshold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shifted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SaturationAdjusted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deskewed</t>
   </si>
 </sst>
 </file>
@@ -71,7 +83,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="1" showOutlineSymbols="1" defaultGridColor="1" colorId="64" zoomScale="100" workbookViewId="0"/>
   </sheetViews>
@@ -96,7 +108,51 @@
         <v>4</v>
       </c>
       <c r="C2" s="0">
-        <v>16.1419122</v>
+        <v>3.5292712</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="0">
+        <v>1.2682953</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="0">
+        <v>1.6154462</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="0">
+        <v>1.5012657</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="0">
+        <v>1.8521408</v>
       </c>
     </row>
   </sheetData>

--- a/src/OCRProject/Output/Comparision/ProcessingResults.xlsx
+++ b/src/OCRProject/Output/Comparision/ProcessingResults.xlsx
@@ -6,39 +6,66 @@
     <workbookView tabRatio="600"/>
   </bookViews>
   <sheets>
-    <sheet name="Processing Times" sheetId="1" r:id="rId3"/>
+    <sheet name="Processing Results" sheetId="1" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
-  <si>
-    <t xml:space="preserve">Image Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Processing Step</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Time Taken (s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">special-characters</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+  <si>
+    <t xml:space="preserve">Model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average Time (s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average Memory (MB)</t>
   </si>
   <si>
     <t xml:space="preserve">Grayscale</t>
   </si>
   <si>
-    <t xml:space="preserve">GlobalThreshold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SaturationAdjusted</t>
+    <t xml:space="preserve">GlobalThreshold_80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GlobalThreshold_100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GlobalThreshold_110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GlobalThreshold_120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GlobalThreshold_140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GlobalThreshold_150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SaturationAdjusted_1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SaturationAdjusted_0.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SaturationAdjusted_0.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SaturationAdjusted_1.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SaturationAdjusted_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SaturationAdjusted_2.5</t>
   </si>
   <si>
     <t xml:space="preserve">Deskewed</t>
   </si>
   <si>
-    <t xml:space="preserve">Memory Usage (MB)</t>
+    <t xml:space="preserve">AdaptiveThreshold</t>
   </si>
 </sst>
 </file>
@@ -83,7 +110,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="1" showOutlineSymbols="1" defaultGridColor="1" colorId="64" zoomScale="100" workbookViewId="0"/>
   </sheetViews>
@@ -99,64 +126,170 @@
       <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>4</v>
+      <c r="B2" s="0">
+        <v>3487.4503</v>
       </c>
       <c r="C2" s="0">
-        <v>0.0330983</v>
-      </c>
-      <c r="D2" s="0">
-        <v>0.23</v>
+        <v>0.0174102783203125</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="B3" s="0">
+        <v>2030.5106</v>
       </c>
       <c r="C3" s="0">
-        <v>0.013891</v>
-      </c>
-      <c r="D3" s="0">
-        <v>-0.09</v>
+        <v>0.00153350830078125</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="B4" s="0">
+        <v>1852.6646</v>
       </c>
       <c r="C4" s="0">
-        <v>0.0136268</v>
-      </c>
-      <c r="D4" s="0">
-        <v>0.18</v>
+        <v>0.001556396484375</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="0">
+        <v>1883.6105</v>
+      </c>
+      <c r="C5" s="0">
+        <v>0.001556396484375</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="0">
-        <v>0.0387508</v>
-      </c>
-      <c r="D5" s="0">
-        <v>0.46</v>
+      <c r="B6" s="0">
+        <v>1855.9105</v>
+      </c>
+      <c r="C6" s="0">
+        <v>0.001556396484375</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="0">
+        <v>1894.1727</v>
+      </c>
+      <c r="C7" s="0">
+        <v>0.001556396484375</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="0">
+        <v>1864.0743</v>
+      </c>
+      <c r="C8" s="0">
+        <v>0.001556396484375</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="0">
+        <v>2414.8405</v>
+      </c>
+      <c r="C9" s="0">
+        <v>0.001556396484375</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="0">
+        <v>2499.9113</v>
+      </c>
+      <c r="C10" s="0">
+        <v>0.001556396484375</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="0">
+        <v>2333.0732</v>
+      </c>
+      <c r="C11" s="0">
+        <v>0.001556396484375</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="0">
+        <v>2304.316</v>
+      </c>
+      <c r="C12" s="0">
+        <v>0.001556396484375</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="0">
+        <v>2361.7887</v>
+      </c>
+      <c r="C13" s="0">
+        <v>0.001556396484375</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="0">
+        <v>2466.5393</v>
+      </c>
+      <c r="C14" s="0">
+        <v>0.001556396484375</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="0">
+        <v>2182.308</v>
+      </c>
+      <c r="C15" s="0">
+        <v>2.4687118530273438</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="0">
+        <v>4926.2778</v>
+      </c>
+      <c r="C16" s="0">
+        <v>0.0014190673828125</v>
       </c>
     </row>
   </sheetData>

--- a/src/OCRProject/Output/Comparision/ProcessingResults.xlsx
+++ b/src/OCRProject/Output/Comparision/ProcessingResults.xlsx
@@ -132,10 +132,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="0">
-        <v>3487.4503</v>
+        <v>2024.8657666666668</v>
       </c>
       <c r="C2" s="0">
-        <v>0.0174102783203125</v>
+        <v>0.013807953728569878</v>
       </c>
     </row>
     <row r="3">
@@ -143,10 +143,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="0">
-        <v>2030.5106</v>
+        <v>1676.4916333333333</v>
       </c>
       <c r="C3" s="0">
-        <v>0.00153350830078125</v>
+        <v>0.0027409235636393224</v>
       </c>
     </row>
     <row r="4">
@@ -154,10 +154,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="0">
-        <v>1852.6646</v>
+        <v>1701.2835333333335</v>
       </c>
       <c r="C4" s="0">
-        <v>0.001556396484375</v>
+        <v>0.001915952894422743</v>
       </c>
     </row>
     <row r="5">
@@ -165,10 +165,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="0">
-        <v>1883.6105</v>
+        <v>1733.68175</v>
       </c>
       <c r="C5" s="0">
-        <v>0.001556396484375</v>
+        <v>0.002750269571940104</v>
       </c>
     </row>
     <row r="6">
@@ -176,10 +176,10 @@
         <v>7</v>
       </c>
       <c r="B6" s="0">
-        <v>1855.9105</v>
+        <v>1655.7440833333333</v>
       </c>
       <c r="C6" s="0">
-        <v>0.001556396484375</v>
+        <v>0.002750269571940104</v>
       </c>
     </row>
     <row r="7">
@@ -187,10 +187,10 @@
         <v>8</v>
       </c>
       <c r="B7" s="0">
-        <v>1894.1727</v>
+        <v>1670.9994333333336</v>
       </c>
       <c r="C7" s="0">
-        <v>0.001556396484375</v>
+        <v>0.002750269571940104</v>
       </c>
     </row>
     <row r="8">
@@ -198,10 +198,10 @@
         <v>9</v>
       </c>
       <c r="B8" s="0">
-        <v>1864.0743</v>
+        <v>1693.3744166666665</v>
       </c>
       <c r="C8" s="0">
-        <v>0.001556396484375</v>
+        <v>0.002975760565863715</v>
       </c>
     </row>
     <row r="9">
@@ -209,10 +209,10 @@
         <v>10</v>
       </c>
       <c r="B9" s="0">
-        <v>2414.8405</v>
+        <v>2127.8638666666666</v>
       </c>
       <c r="C9" s="0">
-        <v>0.001556396484375</v>
+        <v>0.0019566006130642363</v>
       </c>
     </row>
     <row r="10">
@@ -220,10 +220,10 @@
         <v>11</v>
       </c>
       <c r="B10" s="0">
-        <v>2499.9113</v>
+        <v>2134.1489666666666</v>
       </c>
       <c r="C10" s="0">
-        <v>0.001556396484375</v>
+        <v>0.002750269571940104</v>
       </c>
     </row>
     <row r="11">
@@ -231,10 +231,10 @@
         <v>12</v>
       </c>
       <c r="B11" s="0">
-        <v>2333.0732</v>
+        <v>2123.34895</v>
       </c>
       <c r="C11" s="0">
-        <v>0.001556396484375</v>
+        <v>0.0027071423000759546</v>
       </c>
     </row>
     <row r="12">
@@ -242,10 +242,10 @@
         <v>13</v>
       </c>
       <c r="B12" s="0">
-        <v>2304.316</v>
+        <v>2145.4124500000003</v>
       </c>
       <c r="C12" s="0">
-        <v>0.001556396484375</v>
+        <v>0.002723566691080729</v>
       </c>
     </row>
     <row r="13">
@@ -253,10 +253,10 @@
         <v>14</v>
       </c>
       <c r="B13" s="0">
-        <v>2361.7887</v>
+        <v>2085.000333333333</v>
       </c>
       <c r="C13" s="0">
-        <v>0.001556396484375</v>
+        <v>0.0026814142862955728</v>
       </c>
     </row>
     <row r="14">
@@ -264,10 +264,10 @@
         <v>15</v>
       </c>
       <c r="B14" s="0">
-        <v>2466.5393</v>
+        <v>2074.2085500000003</v>
       </c>
       <c r="C14" s="0">
-        <v>0.001556396484375</v>
+        <v>0.002750269571940104</v>
       </c>
     </row>
     <row r="15">
@@ -275,10 +275,10 @@
         <v>16</v>
       </c>
       <c r="B15" s="0">
-        <v>2182.308</v>
+        <v>1199.2448166666666</v>
       </c>
       <c r="C15" s="0">
-        <v>2.4687118530273438</v>
+        <v>2.1103895611233185</v>
       </c>
     </row>
     <row r="16">
@@ -286,10 +286,10 @@
         <v>17</v>
       </c>
       <c r="B16" s="0">
-        <v>4926.2778</v>
+        <v>4515.6431</v>
       </c>
       <c r="C16" s="0">
-        <v>0.0014190673828125</v>
+        <v>0.0026240878634982636</v>
       </c>
     </row>
   </sheetData>

--- a/src/OCRProject/Output/Comparision/ProcessingResults.xlsx
+++ b/src/OCRProject/Output/Comparision/ProcessingResults.xlsx
@@ -6,39 +6,66 @@
     <workbookView tabRatio="600"/>
   </bookViews>
   <sheets>
-    <sheet name="Processing Times" sheetId="1" r:id="rId3"/>
+    <sheet name="Processing Results" sheetId="1" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
-  <si>
-    <t xml:space="preserve">Image Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Processing Step</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Time Taken (s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ocr_preprocessing_input</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+  <si>
+    <t xml:space="preserve">Model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average Time (s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average Memory (MB)</t>
   </si>
   <si>
     <t xml:space="preserve">Grayscale</t>
   </si>
   <si>
-    <t xml:space="preserve">GlobalThreshold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shifted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SaturationAdjusted</t>
+    <t xml:space="preserve">GlobalThreshold_80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GlobalThreshold_100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GlobalThreshold_110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GlobalThreshold_120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GlobalThreshold_140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GlobalThreshold_150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SaturationAdjusted_1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SaturationAdjusted_0.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SaturationAdjusted_0.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SaturationAdjusted_1.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SaturationAdjusted_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SaturationAdjusted_2.5</t>
   </si>
   <si>
     <t xml:space="preserve">Deskewed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AdaptiveThreshold</t>
   </si>
 </sst>
 </file>
@@ -83,7 +110,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="1" showOutlineSymbols="1" defaultGridColor="1" colorId="64" zoomScale="100" workbookViewId="0"/>
   </sheetViews>
@@ -104,55 +131,165 @@
       <c r="A2" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>4</v>
+      <c r="B2" s="0">
+        <v>2024.8657666666668</v>
       </c>
       <c r="C2" s="0">
-        <v>3.5292712</v>
+        <v>0.013807953728569878</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="B3" s="0">
+        <v>1676.4916333333333</v>
       </c>
       <c r="C3" s="0">
-        <v>1.2682953</v>
+        <v>0.0027409235636393224</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="B4" s="0">
+        <v>1701.2835333333335</v>
       </c>
       <c r="C4" s="0">
-        <v>1.6154462</v>
+        <v>0.001915952894422743</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="B5" s="0">
+        <v>1733.68175</v>
       </c>
       <c r="C5" s="0">
-        <v>1.5012657</v>
+        <v>0.002750269571940104</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="0">
+        <v>1655.7440833333333</v>
+      </c>
+      <c r="C6" s="0">
+        <v>0.002750269571940104</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="0">
-        <v>1.8521408</v>
+      <c r="B7" s="0">
+        <v>1670.9994333333336</v>
+      </c>
+      <c r="C7" s="0">
+        <v>0.002750269571940104</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="0">
+        <v>1693.3744166666665</v>
+      </c>
+      <c r="C8" s="0">
+        <v>0.002975760565863715</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="0">
+        <v>2127.8638666666666</v>
+      </c>
+      <c r="C9" s="0">
+        <v>0.0019566006130642363</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="0">
+        <v>2134.1489666666666</v>
+      </c>
+      <c r="C10" s="0">
+        <v>0.002750269571940104</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="0">
+        <v>2123.34895</v>
+      </c>
+      <c r="C11" s="0">
+        <v>0.0027071423000759546</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="0">
+        <v>2145.4124500000003</v>
+      </c>
+      <c r="C12" s="0">
+        <v>0.002723566691080729</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="0">
+        <v>2085.000333333333</v>
+      </c>
+      <c r="C13" s="0">
+        <v>0.0026814142862955728</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="0">
+        <v>2074.2085500000003</v>
+      </c>
+      <c r="C14" s="0">
+        <v>0.002750269571940104</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="0">
+        <v>1199.2448166666666</v>
+      </c>
+      <c r="C15" s="0">
+        <v>2.1103895611233185</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="0">
+        <v>4515.6431</v>
+      </c>
+      <c r="C16" s="0">
+        <v>0.0026240878634982636</v>
       </c>
     </row>
   </sheetData>
